--- a/MVS_SDK/Documentations/工业相机SDK可配置化参数表.xlsx
+++ b/MVS_SDK/Documentations/工业相机SDK可配置化参数表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="68">
   <si>
     <t>参数名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,10 +127,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大于0x10000(64KB)，默认为1M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TransferWays</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -180,10 +176,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>插值算法类型，0-快速 1-均衡 2-最优</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BayerGammaValue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -287,7 +279,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>该节点在linux下不支持,该节点在虚拟相机不支持</t>
+    <t>BayerCvtThreadNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置插值算法处理线程个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-自适应 其他-具体线程个数(1,2,3,...)（默认线程个数为4）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大于0x400(1KB)，默认为1M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插值算法类型，0-快速 1-均衡 2-最优 3-最优+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -350,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -367,6 +375,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -374,12 +385,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -660,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -671,17 +676,17 @@
     <col min="1" max="1" width="22.375" customWidth="1"/>
     <col min="2" max="2" width="23.125" customWidth="1"/>
     <col min="3" max="3" width="35.375" customWidth="1"/>
-    <col min="4" max="4" width="46" customWidth="1"/>
+    <col min="4" max="4" width="60.75" customWidth="1"/>
     <col min="5" max="5" width="41" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
+      <c r="A1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -697,12 +702,12 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>51</v>
+      <c r="A3" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
@@ -715,37 +720,37 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
+      <c r="B5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="E5" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -755,14 +760,14 @@
         <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
@@ -773,11 +778,11 @@
         <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
@@ -785,14 +790,14 @@
         <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
@@ -800,14 +805,14 @@
         <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
+      <c r="A10" s="6"/>
       <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
@@ -815,14 +820,14 @@
         <v>18</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
+      <c r="A11" s="6"/>
       <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
@@ -830,14 +835,14 @@
         <v>20</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
+      <c r="A12" s="6"/>
       <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
@@ -845,14 +850,14 @@
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -862,113 +867,121 @@
         <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="6"/>
+      <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="C14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="6"/>
+      <c r="B15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="6"/>
+      <c r="B17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="6"/>
+      <c r="B19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="6"/>
+      <c r="B20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
-      <c r="B17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="10"/>
-      <c r="B19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="D20" s="2" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A18:A20"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A6:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A3:A5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
